--- a/ValueSet-covid19-complications-icd10-gm.xlsx
+++ b/ValueSet-covid19-complications-icd10-gm.xlsx
@@ -43,7 +43,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-covid19-complications-icd10-gm.xlsx
+++ b/ValueSet-covid19-complications-icd10-gm.xlsx
@@ -49,13 +49,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19ComplicationsICD10GM</t>
+    <t>COVID19ComplicationsICD10GM</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 complications ICD10 GM</t>
+    <t>COVID-19 complications ICD10 GM</t>
   </si>
   <si>
     <t>Status</t>
@@ -88,7 +88,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Complications due to COVID19</t>
+    <t>Complications due to COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
